--- a/기획문서/LALA 테이블 명세서.xlsx
+++ b/기획문서/LALA 테이블 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siwoo\Desktop\최종프로젝트\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A74C248-5423-492C-B319-5AF0FE059981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A61A2-F136-4D2D-984D-BD140F83C878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{05088ACD-AF11-4393-B831-36F7C64AFD8E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="379">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
   </si>
   <si>
     <t>유저 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 일반, 1: 지식제공자, 2: 관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1594,6 +1590,46 @@
   </si>
   <si>
     <t>review_id_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 일반, 1: 지식제공자, 2: 지식제공자 요청 3: 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물/댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:활동중, false:활동정지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2581,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9876BE-F244-40FE-BF42-58233284ADA8}">
-  <dimension ref="A1:L329"/>
+  <dimension ref="A1:L330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L201" sqref="L201"/>
+    <sheetView tabSelected="1" topLeftCell="B271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L290" sqref="L290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2610,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
@@ -2627,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -2679,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>18</v>
@@ -2696,11 +2732,11 @@
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2708,7 +2744,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>18</v>
@@ -2723,11 +2759,11 @@
       <c r="H6" s="3"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2735,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>18</v>
@@ -2750,11 +2786,11 @@
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -2762,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>18</v>
@@ -2777,11 +2813,11 @@
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
       <c r="J8" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -2789,10 +2825,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="39" t="s">
         <v>170</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>171</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2802,11 +2838,11 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K9" s="8"/>
       <c r="L9" s="17" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -2815,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
@@ -2832,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -2884,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9" t="s">
@@ -2898,7 +2934,7 @@
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9"/>
@@ -2910,7 +2946,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
@@ -2927,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -2979,7 +3015,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>18</v>
@@ -2996,13 +3032,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="L19" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3010,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>18</v>
@@ -3027,13 +3063,13 @@
       <c r="H20" s="9"/>
       <c r="I20" s="26"/>
       <c r="J20" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -3042,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
@@ -3059,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
@@ -3128,7 +3164,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="15"/>
@@ -3138,10 +3174,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
@@ -3151,7 +3187,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="15"/>
@@ -3161,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>18</v>
@@ -3176,7 +3212,7 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="17"/>
@@ -3187,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="56"/>
       <c r="E29" s="56"/>
@@ -3204,7 +3240,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
@@ -3256,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>18</v>
@@ -3273,11 +3309,11 @@
       <c r="H32" s="3"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -3285,7 +3321,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>18</v>
@@ -3302,10 +3338,10 @@
       <c r="H33" s="7"/>
       <c r="I33" s="25"/>
       <c r="J33" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L33" s="16"/>
     </row>
@@ -3314,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>18</v>
@@ -3331,10 +3367,10 @@
       <c r="H34" s="7"/>
       <c r="I34" s="25"/>
       <c r="J34" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" s="16"/>
     </row>
@@ -3343,10 +3379,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="6">
         <v>1</v>
@@ -3360,11 +3396,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -3372,10 +3408,10 @@
         <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
@@ -3384,14 +3420,14 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -3399,10 +3435,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
@@ -3414,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="16"/>
@@ -3424,7 +3460,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>18</v>
@@ -3439,11 +3475,11 @@
       <c r="H38" s="7"/>
       <c r="I38" s="25"/>
       <c r="J38" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -3451,10 +3487,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="E39" s="6">
         <v>1</v>
@@ -3468,11 +3504,11 @@
         <v>0</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -3480,10 +3516,10 @@
         <v>9</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
@@ -3495,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="17"/>
@@ -3506,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
@@ -3523,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
@@ -3575,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>18</v>
@@ -3592,10 +3628,10 @@
       <c r="H45" s="3"/>
       <c r="I45" s="5"/>
       <c r="J45" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L45" s="15"/>
     </row>
@@ -3604,7 +3640,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>18</v>
@@ -3621,10 +3657,10 @@
       <c r="H46" s="7"/>
       <c r="I46" s="25"/>
       <c r="J46" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L46" s="16"/>
     </row>
@@ -3633,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>18</v>
@@ -3648,7 +3684,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="26"/>
       <c r="J47" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="17"/>
@@ -3659,7 +3695,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="56"/>
       <c r="E49" s="56"/>
@@ -3676,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="49"/>
@@ -3728,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="9" t="s">
@@ -3742,7 +3778,7 @@
       </c>
       <c r="H52" s="9"/>
       <c r="I52" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="9"/>
@@ -3761,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
@@ -3778,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -3830,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>18</v>
@@ -3847,10 +3883,10 @@
       <c r="H57" s="3"/>
       <c r="I57" s="5"/>
       <c r="J57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L57" s="15"/>
     </row>
@@ -3859,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="3"/>
@@ -3872,7 +3908,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="25"/>
       <c r="J58" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K58" s="7"/>
       <c r="L58" s="16"/>
@@ -3882,10 +3918,10 @@
         <v>3</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="3"/>
@@ -3893,7 +3929,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="25"/>
       <c r="J59" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59" s="16"/>
@@ -3903,10 +3939,10 @@
         <v>4</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
@@ -3914,11 +3950,11 @@
       <c r="H60" s="9"/>
       <c r="I60" s="26"/>
       <c r="J60" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -3927,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" s="56"/>
       <c r="E62" s="56"/>
@@ -3944,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
@@ -3996,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>18</v>
@@ -4013,11 +4049,11 @@
       <c r="H65" s="3"/>
       <c r="I65" s="5"/>
       <c r="J65" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4025,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>18</v>
@@ -4035,14 +4071,14 @@
       </c>
       <c r="F66" s="9"/>
       <c r="G66" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>19</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="17"/>
@@ -4053,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
@@ -4070,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
@@ -4122,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="9" t="s">
@@ -4136,7 +4172,7 @@
       </c>
       <c r="H71" s="9"/>
       <c r="I71" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="9"/>
@@ -4148,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
@@ -4165,7 +4201,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49"/>
@@ -4217,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>18</v>
@@ -4234,11 +4270,11 @@
       <c r="H76" s="3"/>
       <c r="I76" s="5"/>
       <c r="J76" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4246,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>18</v>
@@ -4263,10 +4299,10 @@
       <c r="H77" s="3"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L77" s="15"/>
     </row>
@@ -4275,7 +4311,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>18</v>
@@ -4292,7 +4328,7 @@
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="15"/>
@@ -4302,7 +4338,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>17</v>
@@ -4317,7 +4353,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="15"/>
@@ -4327,7 +4363,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
@@ -4342,7 +4378,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="15"/>
@@ -4352,10 +4388,10 @@
         <v>6</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="7"/>
@@ -4365,7 +4401,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K81" s="7"/>
       <c r="L81" s="16"/>
@@ -4375,10 +4411,10 @@
         <v>7</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="7"/>
@@ -4386,11 +4422,11 @@
       <c r="H82" s="7"/>
       <c r="I82" s="6"/>
       <c r="J82" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K82" s="7"/>
       <c r="L82" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4398,10 +4434,10 @@
         <v>8</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="7"/>
@@ -4411,11 +4447,11 @@
       <c r="H83" s="7"/>
       <c r="I83" s="6"/>
       <c r="J83" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K83" s="7"/>
       <c r="L83" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4423,10 +4459,10 @@
         <v>9</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
@@ -4436,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K84" s="7"/>
       <c r="L84" s="16"/>
@@ -4446,10 +4482,10 @@
         <v>10</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="7"/>
@@ -4459,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K85" s="7"/>
       <c r="L85" s="16"/>
@@ -4469,10 +4505,10 @@
         <v>11</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
@@ -4480,11 +4516,11 @@
       <c r="H86" s="7"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K86" s="7"/>
       <c r="L86" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4492,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>24</v>
@@ -4507,11 +4543,11 @@
         <v>0</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K87" s="7"/>
       <c r="L87" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4519,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>17</v>
@@ -4532,7 +4568,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="8"/>
       <c r="J88" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="17"/>
@@ -4550,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D90" s="51"/>
       <c r="E90" s="51"/>
@@ -4567,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D91" s="53"/>
       <c r="E91" s="53"/>
@@ -4619,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>18</v>
@@ -4636,11 +4672,11 @@
       <c r="H93" s="3"/>
       <c r="I93" s="5"/>
       <c r="J93" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4648,7 +4684,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>18</v>
@@ -4665,13 +4701,13 @@
       <c r="H94" s="3"/>
       <c r="I94" s="5"/>
       <c r="J94" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L94" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L94" s="15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="95" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4679,7 +4715,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>18</v>
@@ -4694,7 +4730,7 @@
       <c r="H95" s="3"/>
       <c r="I95" s="5"/>
       <c r="J95" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="15"/>
@@ -4704,7 +4740,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>18</v>
@@ -4719,7 +4755,7 @@
       <c r="H96" s="9"/>
       <c r="I96" s="26"/>
       <c r="J96" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="17"/>
@@ -4737,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
@@ -4754,7 +4790,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
@@ -4806,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E101" s="8"/>
       <c r="F101" s="9" t="s">
@@ -4820,7 +4856,7 @@
       </c>
       <c r="H101" s="9"/>
       <c r="I101" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J101" s="8"/>
       <c r="K101" s="9"/>
@@ -4839,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="C103" s="51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103" s="51"/>
       <c r="E103" s="51"/>
@@ -4856,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D104" s="53"/>
       <c r="E104" s="53"/>
@@ -4908,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>18</v>
@@ -4925,11 +4961,11 @@
       <c r="H106" s="3"/>
       <c r="I106" s="5"/>
       <c r="J106" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K106" s="3"/>
       <c r="L106" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4937,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>18</v>
@@ -4954,13 +4990,13 @@
       <c r="H107" s="3"/>
       <c r="I107" s="5"/>
       <c r="J107" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K107" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="K107" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="L107" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4968,7 +5004,7 @@
         <v>3</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>18</v>
@@ -4985,13 +5021,13 @@
       <c r="H108" s="3"/>
       <c r="I108" s="5"/>
       <c r="J108" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K108" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="L108" s="15" t="s">
         <v>221</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="109" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -4999,7 +5035,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>18</v>
@@ -5014,7 +5050,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="5"/>
       <c r="J109" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="15"/>
@@ -5024,7 +5060,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>18</v>
@@ -5039,7 +5075,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="5"/>
       <c r="J110" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K110" s="3"/>
       <c r="L110" s="15"/>
@@ -5049,10 +5085,10 @@
         <v>5</v>
       </c>
       <c r="C111" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="E111" s="8"/>
       <c r="F111" s="9"/>
@@ -5062,11 +5098,11 @@
         <v>0</v>
       </c>
       <c r="J111" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K111" s="9"/>
       <c r="L111" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -5075,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="C113" s="51" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D113" s="51"/>
       <c r="E113" s="51"/>
@@ -5092,7 +5128,7 @@
         <v>2</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D114" s="53"/>
       <c r="E114" s="53"/>
@@ -5144,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>18</v>
@@ -5161,11 +5197,11 @@
       <c r="H116" s="3"/>
       <c r="I116" s="5"/>
       <c r="J116" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5173,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>18</v>
@@ -5196,7 +5232,7 @@
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5204,10 +5240,10 @@
         <v>3</v>
       </c>
       <c r="C118" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="9"/>
@@ -5228,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D120" s="51"/>
       <c r="E120" s="51"/>
@@ -5245,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="C121" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D121" s="53"/>
       <c r="E121" s="53"/>
@@ -5297,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>18</v>
@@ -5314,11 +5350,11 @@
       <c r="H123" s="3"/>
       <c r="I123" s="5"/>
       <c r="J123" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="124" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5326,7 +5362,7 @@
         <v>2</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>18</v>
@@ -5343,13 +5379,13 @@
       <c r="H124" s="3"/>
       <c r="I124" s="5"/>
       <c r="J124" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K124" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="K124" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="L124" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5357,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>18</v>
@@ -5380,7 +5416,7 @@
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5388,10 +5424,10 @@
         <v>4</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E126" s="4">
         <v>10</v>
@@ -5402,14 +5438,14 @@
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -5417,7 +5453,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>18</v>
@@ -5432,7 +5468,7 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="43"/>
@@ -5442,7 +5478,7 @@
         <v>6</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>18</v>
@@ -5457,7 +5493,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
       <c r="J128" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="42"/>
@@ -5468,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="51" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D130" s="51"/>
       <c r="E130" s="51"/>
@@ -5485,7 +5521,7 @@
         <v>2</v>
       </c>
       <c r="C131" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D131" s="53"/>
       <c r="E131" s="53"/>
@@ -5537,10 +5573,10 @@
         <v>1</v>
       </c>
       <c r="C133" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="9" t="s">
@@ -5551,7 +5587,7 @@
       </c>
       <c r="H133" s="9"/>
       <c r="I133" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J133" s="8"/>
       <c r="K133" s="9"/>
@@ -5563,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D135" s="51"/>
       <c r="E135" s="51"/>
@@ -5580,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="53" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D136" s="53"/>
       <c r="E136" s="53"/>
@@ -5632,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>18</v>
@@ -5649,10 +5685,10 @@
       <c r="H138" s="3"/>
       <c r="I138" s="5"/>
       <c r="J138" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K138" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="L138" s="15"/>
     </row>
@@ -5661,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>18</v>
@@ -5678,10 +5714,10 @@
       <c r="H139" s="3"/>
       <c r="I139" s="5"/>
       <c r="J139" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L139" s="15"/>
     </row>
@@ -5690,10 +5726,10 @@
         <v>3</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
@@ -5705,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K140" s="3"/>
       <c r="L140" s="15"/>
@@ -5715,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>18</v>
@@ -5730,11 +5766,11 @@
       <c r="H141" s="3"/>
       <c r="I141" s="5"/>
       <c r="J141" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -5742,10 +5778,10 @@
         <v>5</v>
       </c>
       <c r="C142" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
@@ -5757,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K142" s="9"/>
       <c r="L142" s="17"/>
@@ -5768,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D144" s="56"/>
       <c r="E144" s="56"/>
@@ -5785,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="C145" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D145" s="49"/>
       <c r="E145" s="49"/>
@@ -5837,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>18</v>
@@ -5854,10 +5890,10 @@
       <c r="H147" s="3"/>
       <c r="I147" s="5"/>
       <c r="J147" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L147" s="15"/>
     </row>
@@ -5866,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>17</v>
@@ -5883,10 +5919,10 @@
       <c r="H148" s="9"/>
       <c r="I148" s="8"/>
       <c r="J148" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L148" s="17"/>
     </row>
@@ -5897,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="C150" s="55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D150" s="56"/>
       <c r="E150" s="56"/>
@@ -5914,7 +5950,7 @@
         <v>2</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
@@ -5966,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D153" s="37" t="s">
         <v>18</v>
@@ -5983,10 +6019,10 @@
       <c r="H153" s="36"/>
       <c r="I153" s="37"/>
       <c r="J153" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K153" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L153" s="38"/>
     </row>
@@ -5995,7 +6031,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D154" s="37" t="s">
         <v>18</v>
@@ -6010,7 +6046,7 @@
       <c r="H154" s="36"/>
       <c r="I154" s="37"/>
       <c r="J154" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K154" s="36"/>
       <c r="L154" s="38"/>
@@ -6020,7 +6056,7 @@
         <v>3</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D155" s="37" t="s">
         <v>18</v>
@@ -6035,7 +6071,7 @@
       <c r="H155" s="36"/>
       <c r="I155" s="37"/>
       <c r="J155" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K155" s="36"/>
       <c r="L155" s="38"/>
@@ -6045,7 +6081,7 @@
         <v>4</v>
       </c>
       <c r="C156" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D156" s="39" t="s">
         <v>18</v>
@@ -6060,7 +6096,7 @@
       <c r="H156" s="9"/>
       <c r="I156" s="39"/>
       <c r="J156" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="40"/>
@@ -6071,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D158" s="51"/>
       <c r="E158" s="51"/>
@@ -6088,7 +6124,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D159" s="53"/>
       <c r="E159" s="53"/>
@@ -6140,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>18</v>
@@ -6157,11 +6193,11 @@
       <c r="H161" s="3"/>
       <c r="I161" s="5"/>
       <c r="J161" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6184,11 +6220,11 @@
       <c r="H162" s="9"/>
       <c r="I162" s="26"/>
       <c r="J162" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="163" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6204,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="C164" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D164" s="51"/>
       <c r="E164" s="51"/>
@@ -6221,7 +6257,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D165" s="53"/>
       <c r="E165" s="53"/>
@@ -6273,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E167" s="8"/>
       <c r="F167" s="9" t="s">
@@ -6287,7 +6323,7 @@
       </c>
       <c r="H167" s="9"/>
       <c r="I167" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J167" s="8"/>
       <c r="K167" s="9"/>
@@ -6299,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="C169" s="55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D169" s="56"/>
       <c r="E169" s="56"/>
@@ -6316,7 +6352,7 @@
         <v>2</v>
       </c>
       <c r="C170" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D170" s="49"/>
       <c r="E170" s="49"/>
@@ -6368,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>18</v>
@@ -6385,11 +6421,11 @@
       <c r="H172" s="3"/>
       <c r="I172" s="5"/>
       <c r="J172" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K172" s="3"/>
       <c r="L172" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="173" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6397,7 +6433,7 @@
         <v>2</v>
       </c>
       <c r="C173" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>18</v>
@@ -6414,11 +6450,11 @@
       <c r="H173" s="9"/>
       <c r="I173" s="26"/>
       <c r="J173" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K173" s="9"/>
       <c r="L173" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="174" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -6427,7 +6463,7 @@
         <v>1</v>
       </c>
       <c r="C175" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D175" s="56"/>
       <c r="E175" s="56"/>
@@ -6444,7 +6480,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
@@ -6496,10 +6532,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E178" s="8"/>
       <c r="F178" s="9" t="s">
@@ -6510,7 +6546,7 @@
       </c>
       <c r="H178" s="9"/>
       <c r="I178" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J178" s="8"/>
       <c r="K178" s="9"/>
@@ -6529,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="C180" s="45" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D180" s="46"/>
       <c r="E180" s="46"/>
@@ -6546,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="C181" s="48" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
@@ -6598,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>18</v>
@@ -6615,11 +6651,11 @@
       <c r="H183" s="3"/>
       <c r="I183" s="5"/>
       <c r="J183" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K183" s="3"/>
       <c r="L183" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6627,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>18</v>
@@ -6642,7 +6678,7 @@
       <c r="H184" s="3"/>
       <c r="I184" s="5"/>
       <c r="J184" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K184" s="3"/>
       <c r="L184" s="15"/>
@@ -6652,7 +6688,7 @@
         <v>3</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D185" s="4" t="s">
         <v>18</v>
@@ -6667,11 +6703,11 @@
       <c r="H185" s="3"/>
       <c r="I185" s="5"/>
       <c r="J185" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K185" s="3"/>
       <c r="L185" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -6694,7 +6730,7 @@
       <c r="H186" s="9"/>
       <c r="I186" s="26"/>
       <c r="J186" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K186" s="9"/>
       <c r="L186" s="17"/>
@@ -6712,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D188" s="53"/>
       <c r="E188" s="53"/>
@@ -6729,7 +6765,7 @@
         <v>2</v>
       </c>
       <c r="C189" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D189" s="53"/>
       <c r="E189" s="53"/>
@@ -6806,7 +6842,7 @@
         <v>2</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>18</v>
@@ -6829,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>18</v>
@@ -6850,10 +6886,10 @@
         <v>4</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E194" s="4"/>
       <c r="F194" s="3"/>
@@ -6881,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D196" s="56"/>
       <c r="E196" s="56"/>
@@ -6898,7 +6934,7 @@
         <v>2</v>
       </c>
       <c r="C197" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
@@ -6950,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>18</v>
@@ -6967,11 +7003,11 @@
       <c r="H199" s="3"/>
       <c r="I199" s="5"/>
       <c r="J199" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K199" s="3"/>
       <c r="L199" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6979,7 +7015,7 @@
         <v>2</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D200" s="6" t="s">
         <v>18</v>
@@ -6996,10 +7032,10 @@
       <c r="H200" s="7"/>
       <c r="I200" s="25"/>
       <c r="J200" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K200" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L200" s="16"/>
     </row>
@@ -7008,10 +7044,10 @@
         <v>3</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="7"/>
@@ -7021,11 +7057,11 @@
       <c r="H201" s="7"/>
       <c r="I201" s="25"/>
       <c r="J201" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K201" s="7"/>
       <c r="L201" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7033,10 +7069,10 @@
         <v>4</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="7"/>
@@ -7045,14 +7081,14 @@
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K202" s="7"/>
       <c r="L202" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="203" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7060,10 +7096,10 @@
         <v>5</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="7"/>
@@ -7075,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K203" s="7"/>
       <c r="L203" s="16"/>
@@ -7085,10 +7121,10 @@
         <v>6</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="7"/>
@@ -7100,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K204" s="7"/>
       <c r="L204" s="16"/>
@@ -7110,7 +7146,7 @@
         <v>7</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D205" s="6" t="s">
         <v>18</v>
@@ -7125,7 +7161,7 @@
       <c r="H205" s="7"/>
       <c r="I205" s="25"/>
       <c r="J205" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K205" s="7"/>
       <c r="L205" s="16"/>
@@ -7135,10 +7171,10 @@
         <v>8</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="7"/>
@@ -7148,7 +7184,7 @@
       <c r="H206" s="7"/>
       <c r="I206" s="25"/>
       <c r="J206" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K206" s="7"/>
       <c r="L206" s="16"/>
@@ -7158,10 +7194,10 @@
         <v>9</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D207" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E207" s="6">
         <v>1</v>
@@ -7175,11 +7211,11 @@
         <v>0</v>
       </c>
       <c r="J207" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K207" s="7"/>
       <c r="L207" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7187,10 +7223,10 @@
         <v>10</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E208" s="8"/>
       <c r="F208" s="9"/>
@@ -7202,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="J208" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K208" s="9"/>
       <c r="L208" s="17"/>
@@ -7220,7 +7256,7 @@
         <v>1</v>
       </c>
       <c r="C210" s="55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D210" s="56"/>
       <c r="E210" s="56"/>
@@ -7237,7 +7273,7 @@
         <v>2</v>
       </c>
       <c r="C211" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
@@ -7289,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D213" s="4" t="s">
         <v>18</v>
@@ -7306,10 +7342,10 @@
       <c r="H213" s="3"/>
       <c r="I213" s="5"/>
       <c r="J213" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L213" s="15"/>
     </row>
@@ -7318,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>18</v>
@@ -7335,11 +7371,11 @@
       </c>
       <c r="I214" s="25"/>
       <c r="J214" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K214" s="7"/>
       <c r="L214" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="215" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7347,7 +7383,7 @@
         <v>3</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>18</v>
@@ -7364,7 +7400,7 @@
       </c>
       <c r="I215" s="25"/>
       <c r="J215" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K215" s="7"/>
       <c r="L215" s="16"/>
@@ -7374,7 +7410,7 @@
         <v>4</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>18</v>
@@ -7389,7 +7425,7 @@
       <c r="H216" s="7"/>
       <c r="I216" s="25"/>
       <c r="J216" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K216" s="7"/>
       <c r="L216" s="16"/>
@@ -7399,10 +7435,10 @@
         <v>5</v>
       </c>
       <c r="C217" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D217" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>171</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="9"/>
@@ -7412,11 +7448,11 @@
       <c r="H217" s="9"/>
       <c r="I217" s="26"/>
       <c r="J217" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K217" s="9"/>
       <c r="L217" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="218" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -7432,7 +7468,7 @@
         <v>1</v>
       </c>
       <c r="C219" s="55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D219" s="56"/>
       <c r="E219" s="56"/>
@@ -7449,7 +7485,7 @@
         <v>2</v>
       </c>
       <c r="C220" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D220" s="49"/>
       <c r="E220" s="49"/>
@@ -7501,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>18</v>
@@ -7518,10 +7554,10 @@
       <c r="H222" s="3"/>
       <c r="I222" s="5"/>
       <c r="J222" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L222" s="15"/>
     </row>
@@ -7530,7 +7566,7 @@
         <v>2</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>18</v>
@@ -7547,10 +7583,10 @@
       <c r="H223" s="7"/>
       <c r="I223" s="25"/>
       <c r="J223" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K223" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L223" s="16"/>
     </row>
@@ -7559,7 +7595,7 @@
         <v>3</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D224" s="8" t="s">
         <v>18</v>
@@ -7574,7 +7610,7 @@
       <c r="H224" s="9"/>
       <c r="I224" s="26"/>
       <c r="J224" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K224" s="9"/>
       <c r="L224" s="17"/>
@@ -7592,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D226" s="56"/>
       <c r="E226" s="56"/>
@@ -7609,7 +7645,7 @@
         <v>2</v>
       </c>
       <c r="C227" s="48" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D227" s="49"/>
       <c r="E227" s="49"/>
@@ -7661,10 +7697,10 @@
         <v>1</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E229" s="8"/>
       <c r="F229" s="9" t="s">
@@ -7675,7 +7711,7 @@
       </c>
       <c r="H229" s="9"/>
       <c r="I229" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J229" s="8"/>
       <c r="K229" s="9"/>
@@ -7694,7 +7730,7 @@
         <v>1</v>
       </c>
       <c r="C231" s="51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D231" s="51"/>
       <c r="E231" s="51"/>
@@ -7711,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="C232" s="53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D232" s="53"/>
       <c r="E232" s="53"/>
@@ -7763,7 +7799,7 @@
         <v>1</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>18</v>
@@ -7780,11 +7816,11 @@
       <c r="H234" s="3"/>
       <c r="I234" s="5"/>
       <c r="J234" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K234" s="3"/>
       <c r="L234" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="235" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7792,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>18</v>
@@ -7809,13 +7845,13 @@
       <c r="H235" s="3"/>
       <c r="I235" s="5"/>
       <c r="J235" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K235" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L235" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="236" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7823,7 +7859,7 @@
         <v>3</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D236" s="4" t="s">
         <v>18</v>
@@ -7843,10 +7879,10 @@
         <v>21</v>
       </c>
       <c r="K236" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L236" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="237" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7854,7 +7890,7 @@
         <v>4</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D237" s="4" t="s">
         <v>18</v>
@@ -7871,13 +7907,13 @@
       <c r="H237" s="3"/>
       <c r="I237" s="5"/>
       <c r="J237" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K237" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L237" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="238" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7885,7 +7921,7 @@
         <v>5</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>18</v>
@@ -7904,7 +7940,7 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
       <c r="L238" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="239" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -7912,10 +7948,10 @@
         <v>6</v>
       </c>
       <c r="C239" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D239" s="27" t="s">
         <v>299</v>
-      </c>
-      <c r="D239" s="27" t="s">
-        <v>300</v>
       </c>
       <c r="E239" s="4"/>
       <c r="F239" s="3"/>
@@ -7925,7 +7961,7 @@
       <c r="H239" s="3"/>
       <c r="I239" s="4"/>
       <c r="J239" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K239" s="3"/>
       <c r="L239" s="28"/>
@@ -7935,10 +7971,10 @@
         <v>7</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E240" s="4"/>
       <c r="F240" s="3"/>
@@ -7948,7 +7984,7 @@
       <c r="H240" s="3"/>
       <c r="I240" s="4"/>
       <c r="J240" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K240" s="3"/>
       <c r="L240" s="28"/>
@@ -7958,10 +7994,10 @@
         <v>8</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E241" s="4"/>
       <c r="F241" s="3"/>
@@ -7971,7 +8007,7 @@
       <c r="H241" s="3"/>
       <c r="I241" s="4"/>
       <c r="J241" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K241" s="3"/>
       <c r="L241" s="28"/>
@@ -7981,10 +8017,10 @@
         <v>9</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D242" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E242" s="4"/>
       <c r="F242" s="3"/>
@@ -7993,10 +8029,10 @@
       </c>
       <c r="H242" s="3"/>
       <c r="I242" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J242" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K242" s="3"/>
       <c r="L242" s="28"/>
@@ -8006,7 +8042,7 @@
         <v>10</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D243" s="27" t="s">
         <v>18</v>
@@ -8021,11 +8057,11 @@
       <c r="H243" s="3"/>
       <c r="I243" s="4"/>
       <c r="J243" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K243" s="3"/>
       <c r="L243" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8033,10 +8069,10 @@
         <v>11</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D244" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E244" s="4"/>
       <c r="F244" s="3"/>
@@ -8046,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="J244" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K244" s="3"/>
       <c r="L244" s="28"/>
@@ -8056,10 +8092,10 @@
         <v>12</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D245" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E245" s="8"/>
       <c r="F245" s="9"/>
@@ -8067,7 +8103,7 @@
       <c r="H245" s="9"/>
       <c r="I245" s="8"/>
       <c r="J245" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K245" s="9"/>
       <c r="L245" s="40"/>
@@ -8085,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D247" s="51"/>
       <c r="E247" s="51"/>
@@ -8102,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="C248" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D248" s="53"/>
       <c r="E248" s="53"/>
@@ -8154,7 +8190,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D250" s="4" t="s">
         <v>18</v>
@@ -8171,11 +8207,11 @@
       <c r="H250" s="3"/>
       <c r="I250" s="5"/>
       <c r="J250" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K250" s="3"/>
       <c r="L250" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="251" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8183,7 +8219,7 @@
         <v>2</v>
       </c>
       <c r="C251" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>18</v>
@@ -8198,7 +8234,7 @@
       <c r="H251" s="3"/>
       <c r="I251" s="5"/>
       <c r="J251" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K251" s="3"/>
       <c r="L251" s="15"/>
@@ -8208,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="C252" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D252" s="4" t="s">
         <v>18</v>
@@ -8223,11 +8259,11 @@
       <c r="H252" s="3"/>
       <c r="I252" s="5"/>
       <c r="J252" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K252" s="3"/>
       <c r="L252" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="253" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8235,7 +8271,7 @@
         <v>3</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D253" s="8" t="s">
         <v>18</v>
@@ -8250,7 +8286,7 @@
       <c r="H253" s="9"/>
       <c r="I253" s="26"/>
       <c r="J253" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K253" s="9"/>
       <c r="L253" s="17"/>
@@ -8268,7 +8304,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D255" s="51"/>
       <c r="E255" s="51"/>
@@ -8285,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="C256" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D256" s="53"/>
       <c r="E256" s="53"/>
@@ -8337,10 +8373,10 @@
         <v>1</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E258" s="8"/>
       <c r="F258" s="9" t="s">
@@ -8351,7 +8387,7 @@
       </c>
       <c r="H258" s="9"/>
       <c r="I258" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J258" s="8"/>
       <c r="K258" s="9"/>
@@ -8370,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="C260" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D260" s="56"/>
       <c r="E260" s="56"/>
@@ -8387,7 +8423,7 @@
         <v>2</v>
       </c>
       <c r="C261" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D261" s="49"/>
       <c r="E261" s="49"/>
@@ -8439,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D263" s="4" t="s">
         <v>18</v>
@@ -8456,11 +8492,11 @@
       <c r="H263" s="3"/>
       <c r="I263" s="5"/>
       <c r="J263" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K263" s="3"/>
       <c r="L263" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="264" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8468,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D264" s="6" t="s">
         <v>18</v>
@@ -8485,10 +8521,10 @@
       <c r="H264" s="7"/>
       <c r="I264" s="25"/>
       <c r="J264" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K264" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L264" s="16"/>
     </row>
@@ -8497,7 +8533,7 @@
         <v>3</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>18</v>
@@ -8514,10 +8550,10 @@
       <c r="H265" s="7"/>
       <c r="I265" s="25"/>
       <c r="J265" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K265" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L265" s="16"/>
     </row>
@@ -8526,10 +8562,10 @@
         <v>4</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E266" s="4"/>
       <c r="F266" s="3"/>
@@ -8539,11 +8575,11 @@
       <c r="H266" s="7"/>
       <c r="I266" s="25"/>
       <c r="J266" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K266" s="7"/>
       <c r="L266" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="267" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8551,7 +8587,7 @@
         <v>5</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D267" s="6" t="s">
         <v>18</v>
@@ -8566,7 +8602,7 @@
       <c r="H267" s="7"/>
       <c r="I267" s="25"/>
       <c r="J267" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K267" s="7"/>
       <c r="L267" s="16"/>
@@ -8576,10 +8612,10 @@
         <v>6</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D268" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E268" s="4"/>
       <c r="F268" s="3"/>
@@ -8591,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="J268" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K268" s="7"/>
       <c r="L268" s="16"/>
@@ -8601,10 +8637,10 @@
         <v>7</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D269" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E269" s="4"/>
       <c r="F269" s="3"/>
@@ -8614,11 +8650,11 @@
       <c r="H269" s="7"/>
       <c r="I269" s="25"/>
       <c r="J269" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K269" s="7"/>
       <c r="L269" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="270" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8626,10 +8662,10 @@
         <v>8</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="7"/>
@@ -8637,11 +8673,11 @@
       <c r="H270" s="7"/>
       <c r="I270" s="25"/>
       <c r="J270" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K270" s="7"/>
       <c r="L270" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="271" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8649,7 +8685,7 @@
         <v>9</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>18</v>
@@ -8662,11 +8698,11 @@
       <c r="H271" s="7"/>
       <c r="I271" s="25"/>
       <c r="J271" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K271" s="7"/>
       <c r="L271" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="272" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8674,10 +8710,10 @@
         <v>10</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="7"/>
@@ -8685,11 +8721,11 @@
       <c r="H272" s="7"/>
       <c r="I272" s="25"/>
       <c r="J272" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K272" s="7"/>
       <c r="L272" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="273" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8697,10 +8733,10 @@
         <v>11</v>
       </c>
       <c r="C273" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E273" s="8"/>
       <c r="F273" s="9"/>
@@ -8708,11 +8744,11 @@
       <c r="H273" s="9"/>
       <c r="I273" s="26"/>
       <c r="J273" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K273" s="9"/>
       <c r="L273" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="274" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -8728,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="C275" s="55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D275" s="56"/>
       <c r="E275" s="56"/>
@@ -8745,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="C276" s="48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D276" s="49"/>
       <c r="E276" s="49"/>
@@ -8797,10 +8833,10 @@
         <v>1</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="9" t="s">
@@ -8811,7 +8847,7 @@
       </c>
       <c r="H278" s="9"/>
       <c r="I278" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J278" s="8"/>
       <c r="K278" s="9"/>
@@ -8829,35 +8865,35 @@
       <c r="B280" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C280" s="55" t="s">
+      <c r="C280" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D280" s="56"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="56"/>
-      <c r="G280" s="56"/>
-      <c r="H280" s="56"/>
-      <c r="I280" s="56"/>
-      <c r="J280" s="56"/>
-      <c r="K280" s="56"/>
-      <c r="L280" s="57"/>
+      <c r="D280" s="51"/>
+      <c r="E280" s="51"/>
+      <c r="F280" s="51"/>
+      <c r="G280" s="51"/>
+      <c r="H280" s="51"/>
+      <c r="I280" s="51"/>
+      <c r="J280" s="51"/>
+      <c r="K280" s="51"/>
+      <c r="L280" s="52"/>
     </row>
     <row r="281" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B281" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C281" s="48" t="s">
+      <c r="C281" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="D281" s="49"/>
-      <c r="E281" s="49"/>
-      <c r="F281" s="49"/>
-      <c r="G281" s="49"/>
-      <c r="H281" s="49"/>
-      <c r="I281" s="49"/>
-      <c r="J281" s="49"/>
-      <c r="K281" s="49"/>
-      <c r="L281" s="50"/>
+      <c r="D281" s="53"/>
+      <c r="E281" s="53"/>
+      <c r="F281" s="53"/>
+      <c r="G281" s="53"/>
+      <c r="H281" s="53"/>
+      <c r="I281" s="53"/>
+      <c r="J281" s="53"/>
+      <c r="K281" s="53"/>
+      <c r="L281" s="54"/>
     </row>
     <row r="282" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B282" s="10" t="s">
@@ -8949,7 +8985,7 @@
       </c>
       <c r="K284" s="3"/>
       <c r="L284" s="15" t="s">
-        <v>26</v>
+        <v>370</v>
       </c>
     </row>
     <row r="285" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -8957,7 +8993,7 @@
         <v>3</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>17</v>
@@ -8972,7 +9008,7 @@
       </c>
       <c r="I285" s="4"/>
       <c r="J285" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K285" s="3"/>
       <c r="L285" s="15"/>
@@ -8982,7 +9018,7 @@
         <v>4</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>17</v>
@@ -8997,7 +9033,7 @@
       <c r="H286" s="3"/>
       <c r="I286" s="4"/>
       <c r="J286" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K286" s="3"/>
       <c r="L286" s="15"/>
@@ -9007,7 +9043,7 @@
         <v>5</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>17</v>
@@ -9022,7 +9058,7 @@
       <c r="H287" s="3"/>
       <c r="I287" s="4"/>
       <c r="J287" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K287" s="3"/>
       <c r="L287" s="15"/>
@@ -9031,435 +9067,471 @@
       <c r="B288" s="2">
         <v>6</v>
       </c>
-      <c r="C288" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D288" s="6" t="s">
+      <c r="C288" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D288" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E288" s="6">
+      <c r="E288" s="4">
         <v>255</v>
       </c>
-      <c r="F288" s="7"/>
+      <c r="F288" s="3"/>
       <c r="G288" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H288" s="7"/>
-      <c r="I288" s="6"/>
-      <c r="J288" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K288" s="7"/>
-      <c r="L288" s="16"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="4"/>
+      <c r="J288" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K288" s="3"/>
+      <c r="L288" s="15"/>
     </row>
     <row r="289" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B289" s="2">
         <v>7</v>
       </c>
-      <c r="C289" s="6" t="s">
+      <c r="C289" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E289" s="4">
+        <v>255</v>
+      </c>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="4"/>
+      <c r="J289" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K289" s="3"/>
+      <c r="L289" s="15"/>
+    </row>
+    <row r="290" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B290" s="2">
+        <v>8</v>
+      </c>
+      <c r="C290" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D289" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E289" s="6">
-        <v>255</v>
-      </c>
-      <c r="F289" s="7"/>
-      <c r="G289" s="7"/>
-      <c r="H289" s="7"/>
-      <c r="I289" s="6"/>
-      <c r="J289" s="6" t="s">
+      <c r="D290" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E290" s="4"/>
+      <c r="F290" s="3"/>
+      <c r="G290" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H290" s="3"/>
+      <c r="I290" s="4"/>
+      <c r="J290" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K289" s="7"/>
-      <c r="L289" s="16"/>
-    </row>
-    <row r="290" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B290" s="14">
-        <v>8</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D290" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E290" s="8"/>
-      <c r="F290" s="9"/>
-      <c r="G290" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H290" s="9"/>
-      <c r="I290" s="8"/>
-      <c r="J290" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K290" s="9"/>
-      <c r="L290" s="17"/>
-    </row>
-    <row r="291" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="292" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B292" s="13" t="s">
+      <c r="K290" s="3"/>
+      <c r="L290" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="291" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B291" s="14">
+        <v>9</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D291" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E291" s="8"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H291" s="9"/>
+      <c r="I291" s="8"/>
+      <c r="J291" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="K291" s="9"/>
+      <c r="L291" s="17"/>
+    </row>
+    <row r="292" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="293" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B293" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C292" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D292" s="56"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="56"/>
-      <c r="G292" s="56"/>
-      <c r="H292" s="56"/>
-      <c r="I292" s="56"/>
-      <c r="J292" s="56"/>
-      <c r="K292" s="56"/>
-      <c r="L292" s="57"/>
-    </row>
-    <row r="293" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B293" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C293" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D293" s="49"/>
-      <c r="E293" s="49"/>
-      <c r="F293" s="49"/>
-      <c r="G293" s="49"/>
-      <c r="H293" s="49"/>
-      <c r="I293" s="49"/>
-      <c r="J293" s="49"/>
-      <c r="K293" s="49"/>
-      <c r="L293" s="50"/>
+      <c r="C293" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D293" s="56"/>
+      <c r="E293" s="56"/>
+      <c r="F293" s="56"/>
+      <c r="G293" s="56"/>
+      <c r="H293" s="56"/>
+      <c r="I293" s="56"/>
+      <c r="J293" s="56"/>
+      <c r="K293" s="56"/>
+      <c r="L293" s="57"/>
     </row>
     <row r="294" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B294" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C294" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D294" s="49"/>
+      <c r="E294" s="49"/>
+      <c r="F294" s="49"/>
+      <c r="G294" s="49"/>
+      <c r="H294" s="49"/>
+      <c r="I294" s="49"/>
+      <c r="J294" s="49"/>
+      <c r="K294" s="49"/>
+      <c r="L294" s="50"/>
+    </row>
+    <row r="295" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B295" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C294" s="11" t="s">
+      <c r="C295" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D294" s="11" t="s">
+      <c r="D295" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E294" s="11" t="s">
+      <c r="E295" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F294" s="11" t="s">
+      <c r="F295" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G294" s="11" t="s">
+      <c r="G295" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H294" s="11" t="s">
+      <c r="H295" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I294" s="11" t="s">
+      <c r="I295" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J294" s="11" t="s">
+      <c r="J295" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K294" s="11" t="s">
+      <c r="K295" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L294" s="12" t="s">
+      <c r="L295" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="295" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B295" s="2">
+    <row r="296" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B296" s="2">
         <v>1</v>
       </c>
-      <c r="C295" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D295" s="4" t="s">
+      <c r="C296" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D296" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E295" s="4">
+      <c r="E296" s="4">
         <v>8</v>
       </c>
-      <c r="F295" s="3" t="s">
+      <c r="F296" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G295" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H295" s="3"/>
-      <c r="I295" s="5"/>
-      <c r="J295" s="4" t="s">
+      <c r="G296" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H296" s="3"/>
+      <c r="I296" s="5"/>
+      <c r="J296" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L296" s="15"/>
+    </row>
+    <row r="297" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B297" s="14">
+        <v>2</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D297" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E297" s="8">
+        <v>4</v>
+      </c>
+      <c r="F297" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H297" s="9"/>
+      <c r="I297" s="8"/>
+      <c r="J297" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K295" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L295" s="15"/>
-    </row>
-    <row r="296" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B296" s="14">
-        <v>2</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E296" s="8">
-        <v>4</v>
-      </c>
-      <c r="F296" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G296" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H296" s="9"/>
-      <c r="I296" s="8"/>
-      <c r="J296" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K296" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="L296" s="17"/>
-    </row>
-    <row r="297" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="298" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B298" s="13" t="s">
+      <c r="K297" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L297" s="17"/>
+    </row>
+    <row r="298" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="299" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B299" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C298" s="51" t="s">
-        <v>314</v>
-      </c>
-      <c r="D298" s="51"/>
-      <c r="E298" s="51"/>
-      <c r="F298" s="51"/>
-      <c r="G298" s="51"/>
-      <c r="H298" s="51"/>
-      <c r="I298" s="51"/>
-      <c r="J298" s="51"/>
-      <c r="K298" s="51"/>
-      <c r="L298" s="52"/>
-    </row>
-    <row r="299" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B299" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C299" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D299" s="53"/>
-      <c r="E299" s="53"/>
-      <c r="F299" s="53"/>
-      <c r="G299" s="53"/>
-      <c r="H299" s="53"/>
-      <c r="I299" s="53"/>
-      <c r="J299" s="53"/>
-      <c r="K299" s="53"/>
-      <c r="L299" s="54"/>
+      <c r="C299" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="D299" s="51"/>
+      <c r="E299" s="51"/>
+      <c r="F299" s="51"/>
+      <c r="G299" s="51"/>
+      <c r="H299" s="51"/>
+      <c r="I299" s="51"/>
+      <c r="J299" s="51"/>
+      <c r="K299" s="51"/>
+      <c r="L299" s="52"/>
     </row>
     <row r="300" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B300" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C300" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D300" s="53"/>
+      <c r="E300" s="53"/>
+      <c r="F300" s="53"/>
+      <c r="G300" s="53"/>
+      <c r="H300" s="53"/>
+      <c r="I300" s="53"/>
+      <c r="J300" s="53"/>
+      <c r="K300" s="53"/>
+      <c r="L300" s="54"/>
+    </row>
+    <row r="301" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B301" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C300" s="11" t="s">
+      <c r="C301" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D300" s="11" t="s">
+      <c r="D301" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E300" s="11" t="s">
+      <c r="E301" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F300" s="11" t="s">
+      <c r="F301" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G300" s="11" t="s">
+      <c r="G301" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H300" s="11" t="s">
+      <c r="H301" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I300" s="11" t="s">
+      <c r="I301" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J300" s="11" t="s">
+      <c r="J301" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K300" s="11" t="s">
+      <c r="K301" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L300" s="12" t="s">
+      <c r="L301" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B301" s="2">
+    <row r="302" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B302" s="2">
         <v>1</v>
       </c>
-      <c r="C301" s="27" t="s">
+      <c r="C302" s="27" t="s">
         <v>16</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E301" s="4">
-        <v>8</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H301" s="3"/>
-      <c r="I301" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J301" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K301" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L301" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="302" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B302" s="14">
-        <v>2</v>
-      </c>
-      <c r="C302" s="39" t="s">
-        <v>297</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E302" s="8">
+      <c r="E302" s="4">
+        <v>8</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H302" s="3"/>
+      <c r="I302" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K302" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L302" s="15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B303" s="14">
+        <v>2</v>
+      </c>
+      <c r="C303" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D303" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E303" s="8">
         <v>500</v>
       </c>
-      <c r="F302" s="9" t="s">
+      <c r="F303" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G302" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H302" s="9"/>
-      <c r="I302" s="9"/>
-      <c r="J302" s="9"/>
-      <c r="K302" s="9"/>
-      <c r="L302" s="42"/>
-    </row>
-    <row r="303" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="304" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B304" s="13" t="s">
+      <c r="G303" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="42"/>
+    </row>
+    <row r="304" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="305" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B305" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C304" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D304" s="56"/>
-      <c r="E304" s="56"/>
-      <c r="F304" s="56"/>
-      <c r="G304" s="56"/>
-      <c r="H304" s="56"/>
-      <c r="I304" s="56"/>
-      <c r="J304" s="56"/>
-      <c r="K304" s="56"/>
-      <c r="L304" s="57"/>
-    </row>
-    <row r="305" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B305" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C305" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D305" s="49"/>
-      <c r="E305" s="49"/>
-      <c r="F305" s="49"/>
-      <c r="G305" s="49"/>
-      <c r="H305" s="49"/>
-      <c r="I305" s="49"/>
-      <c r="J305" s="49"/>
-      <c r="K305" s="49"/>
-      <c r="L305" s="50"/>
+      <c r="C305" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D305" s="56"/>
+      <c r="E305" s="56"/>
+      <c r="F305" s="56"/>
+      <c r="G305" s="56"/>
+      <c r="H305" s="56"/>
+      <c r="I305" s="56"/>
+      <c r="J305" s="56"/>
+      <c r="K305" s="56"/>
+      <c r="L305" s="57"/>
     </row>
     <row r="306" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B306" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C306" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D306" s="49"/>
+      <c r="E306" s="49"/>
+      <c r="F306" s="49"/>
+      <c r="G306" s="49"/>
+      <c r="H306" s="49"/>
+      <c r="I306" s="49"/>
+      <c r="J306" s="49"/>
+      <c r="K306" s="49"/>
+      <c r="L306" s="50"/>
+    </row>
+    <row r="307" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B307" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C306" s="11" t="s">
+      <c r="C307" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D306" s="11" t="s">
+      <c r="D307" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E306" s="11" t="s">
+      <c r="E307" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F306" s="11" t="s">
+      <c r="F307" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G306" s="11" t="s">
+      <c r="G307" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H306" s="11" t="s">
+      <c r="H307" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I306" s="11" t="s">
+      <c r="I307" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J306" s="11" t="s">
+      <c r="J307" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K306" s="11" t="s">
+      <c r="K307" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L306" s="12" t="s">
+      <c r="L307" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="307" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B307" s="14">
+    <row r="308" spans="2:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B308" s="14">
         <v>1</v>
       </c>
-      <c r="C307" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D307" s="8" t="s">
+      <c r="C308" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D308" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E308" s="8"/>
+      <c r="F308" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G308" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H308" s="9"/>
+      <c r="I308" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="8"/>
-      <c r="F307" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G307" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H307" s="9"/>
-      <c r="I307" s="8" t="s">
+      <c r="J308" s="8"/>
+      <c r="K308" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J307" s="8"/>
-      <c r="K307" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L307" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="315" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C315" s="33"/>
-      <c r="D315" s="33"/>
-      <c r="E315" s="33"/>
-      <c r="I315" s="33"/>
-      <c r="J315" s="33"/>
-      <c r="L315" s="33"/>
+      <c r="L308" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I312" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="J312" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K312" s="19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="313" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I313" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="J313" s="19" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="316" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C316" s="33"/>
@@ -9469,16 +9541,16 @@
       <c r="J316" s="33"/>
       <c r="L316" s="33"/>
     </row>
-    <row r="326" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C326" s="33"/>
-      <c r="D326" s="33"/>
-      <c r="E326" s="33"/>
-      <c r="I326" s="34"/>
-      <c r="J326" s="33"/>
-      <c r="L326" s="33"/>
+    <row r="317" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C317" s="33"/>
+      <c r="D317" s="33"/>
+      <c r="E317" s="33"/>
+      <c r="I317" s="33"/>
+      <c r="J317" s="33"/>
+      <c r="L317" s="33"/>
     </row>
     <row r="327" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C327" s="44"/>
+      <c r="C327" s="33"/>
       <c r="D327" s="33"/>
       <c r="E327" s="33"/>
       <c r="I327" s="34"/>
@@ -9494,7 +9566,15 @@
       <c r="L328" s="33"/>
     </row>
     <row r="329" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L329" s="44"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="33"/>
+      <c r="E329" s="33"/>
+      <c r="I329" s="34"/>
+      <c r="J329" s="33"/>
+      <c r="L329" s="33"/>
+    </row>
+    <row r="330" spans="3:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L330" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -9514,17 +9594,17 @@
     <mergeCell ref="C120:L120"/>
     <mergeCell ref="C121:L121"/>
     <mergeCell ref="C113:L113"/>
-    <mergeCell ref="C304:L304"/>
     <mergeCell ref="C305:L305"/>
+    <mergeCell ref="C306:L306"/>
     <mergeCell ref="C73:L73"/>
     <mergeCell ref="C103:L103"/>
     <mergeCell ref="C104:L104"/>
-    <mergeCell ref="C298:L298"/>
     <mergeCell ref="C299:L299"/>
+    <mergeCell ref="C300:L300"/>
     <mergeCell ref="C135:L135"/>
     <mergeCell ref="C136:L136"/>
-    <mergeCell ref="C292:L292"/>
     <mergeCell ref="C293:L293"/>
+    <mergeCell ref="C294:L294"/>
     <mergeCell ref="C144:L144"/>
     <mergeCell ref="C145:L145"/>
     <mergeCell ref="C74:L74"/>
@@ -9605,13 +9685,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="62"/>
       <c r="D4" s="63"/>
@@ -9628,7 +9708,7 @@
     </row>
     <row r="7" spans="2:4" ht="169.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
@@ -9640,16 +9720,16 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>99</v>
       </c>
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:4" ht="189" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="63"/>
@@ -9657,7 +9737,7 @@
     <row r="11" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="12" spans="2:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="66"/>
@@ -9668,13 +9748,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="2:4" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="63"/>
@@ -9685,13 +9765,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
@@ -9703,16 +9783,16 @@
     </row>
     <row r="20" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B20" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:4" ht="186.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="62"/>
       <c r="D21" s="63"/>

--- a/기획문서/LALA 테이블 명세서.xlsx
+++ b/기획문서/LALA 테이블 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siwoo\Desktop\최종프로젝트\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A61A2-F136-4D2D-984D-BD140F83C878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB47E8-875C-4777-86E6-F8EBC061E040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{05088ACD-AF11-4393-B831-36F7C64AFD8E}"/>
   </bookViews>
@@ -2217,6 +2217,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2239,12 +2245,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2619,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9876BE-F244-40FE-BF42-58233284ADA8}">
   <dimension ref="A1:L330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B271" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L290" sqref="L290"/>
+    <sheetView tabSelected="1" topLeftCell="B60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2645,35 +2645,35 @@
       <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="47"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="49"/>
     </row>
     <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
@@ -2850,35 +2850,35 @@
       <c r="B11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="10" t="s">
@@ -2962,18 +2962,18 @@
       <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10" t="s">
@@ -3077,35 +3077,35 @@
       <c r="B22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
     </row>
     <row r="23" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46"/>
     </row>
     <row r="24" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="10" t="s">
@@ -3239,18 +3239,18 @@
       <c r="B30" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="50"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
     </row>
     <row r="31" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="10" t="s">
@@ -3558,18 +3558,18 @@
       <c r="B43" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="50"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
     </row>
     <row r="44" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="10" t="s">
@@ -3711,18 +3711,18 @@
       <c r="B50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="50" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
     </row>
     <row r="51" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="10" t="s">
@@ -3813,18 +3813,18 @@
       <c r="B55" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="50"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="52"/>
     </row>
     <row r="56" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="10" t="s">
@@ -3979,18 +3979,18 @@
       <c r="B63" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="48" t="s">
+      <c r="C63" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="50"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
     </row>
     <row r="64" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="10" t="s">
@@ -4105,18 +4105,18 @@
       <c r="B69" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="50"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
     </row>
     <row r="70" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="10" t="s">
@@ -4200,18 +4200,18 @@
       <c r="B74" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="48" t="s">
+      <c r="C74" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="50"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
     </row>
     <row r="75" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B75" s="10" t="s">
@@ -4366,11 +4366,9 @@
         <v>51</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="4">
-        <v>255</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E80" s="4"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3" t="s">
         <v>19</v>
@@ -4585,35 +4583,35 @@
       <c r="B90" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-      <c r="J90" s="51"/>
-      <c r="K90" s="51"/>
-      <c r="L90" s="52"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="53"/>
+      <c r="I90" s="53"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="53"/>
+      <c r="L90" s="54"/>
     </row>
     <row r="91" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B91" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="53"/>
-      <c r="L91" s="54"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="46"/>
     </row>
     <row r="92" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B92" s="10" t="s">
@@ -4789,18 +4787,18 @@
       <c r="B99" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49"/>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49"/>
-      <c r="L99" s="50"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="52"/>
     </row>
     <row r="100" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B100" s="10" t="s">
@@ -4874,35 +4872,35 @@
       <c r="B103" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="51"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="52"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="53"/>
+      <c r="J103" s="53"/>
+      <c r="K103" s="53"/>
+      <c r="L103" s="54"/>
     </row>
     <row r="104" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B104" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C104" s="53" t="s">
+      <c r="C104" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="D104" s="53"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="53"/>
-      <c r="H104" s="53"/>
-      <c r="I104" s="53"/>
-      <c r="J104" s="53"/>
-      <c r="K104" s="53"/>
-      <c r="L104" s="54"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="46"/>
     </row>
     <row r="105" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B105" s="10" t="s">
@@ -5110,35 +5108,35 @@
       <c r="B113" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="51" t="s">
+      <c r="C113" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="52"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="53"/>
+      <c r="L113" s="54"/>
     </row>
     <row r="114" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B114" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C114" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="54"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="46"/>
     </row>
     <row r="115" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B115" s="10" t="s">
@@ -5263,35 +5261,35 @@
       <c r="B120" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
-      <c r="L120" s="52"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="53"/>
+      <c r="H120" s="53"/>
+      <c r="I120" s="53"/>
+      <c r="J120" s="53"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="54"/>
     </row>
     <row r="121" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B121" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="53" t="s">
+      <c r="C121" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="53"/>
-      <c r="L121" s="54"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="46"/>
     </row>
     <row r="122" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B122" s="10" t="s">
@@ -5503,35 +5501,35 @@
       <c r="B130" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="51" t="s">
+      <c r="C130" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="D130" s="51"/>
-      <c r="E130" s="51"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="51"/>
-      <c r="I130" s="51"/>
-      <c r="J130" s="51"/>
-      <c r="K130" s="51"/>
-      <c r="L130" s="52"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="53"/>
+      <c r="H130" s="53"/>
+      <c r="I130" s="53"/>
+      <c r="J130" s="53"/>
+      <c r="K130" s="53"/>
+      <c r="L130" s="54"/>
     </row>
     <row r="131" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B131" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="53" t="s">
+      <c r="C131" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="D131" s="53"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="53"/>
-      <c r="G131" s="53"/>
-      <c r="H131" s="53"/>
-      <c r="I131" s="53"/>
-      <c r="J131" s="53"/>
-      <c r="K131" s="53"/>
-      <c r="L131" s="54"/>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
+      <c r="G131" s="45"/>
+      <c r="H131" s="45"/>
+      <c r="I131" s="45"/>
+      <c r="J131" s="45"/>
+      <c r="K131" s="45"/>
+      <c r="L131" s="46"/>
     </row>
     <row r="132" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B132" s="10" t="s">
@@ -5598,35 +5596,35 @@
       <c r="B135" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="D135" s="51"/>
-      <c r="E135" s="51"/>
-      <c r="F135" s="51"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="51"/>
-      <c r="I135" s="51"/>
-      <c r="J135" s="51"/>
-      <c r="K135" s="51"/>
-      <c r="L135" s="52"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="53"/>
+      <c r="G135" s="53"/>
+      <c r="H135" s="53"/>
+      <c r="I135" s="53"/>
+      <c r="J135" s="53"/>
+      <c r="K135" s="53"/>
+      <c r="L135" s="54"/>
     </row>
     <row r="136" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B136" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="53" t="s">
+      <c r="C136" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="D136" s="53"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="53"/>
-      <c r="H136" s="53"/>
-      <c r="I136" s="53"/>
-      <c r="J136" s="53"/>
-      <c r="K136" s="53"/>
-      <c r="L136" s="54"/>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45"/>
+      <c r="I136" s="45"/>
+      <c r="J136" s="45"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="46"/>
     </row>
     <row r="137" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B137" s="10" t="s">
@@ -5820,18 +5818,18 @@
       <c r="B145" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C145" s="48" t="s">
+      <c r="C145" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="49"/>
-      <c r="I145" s="49"/>
-      <c r="J145" s="49"/>
-      <c r="K145" s="49"/>
-      <c r="L145" s="50"/>
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="51"/>
+      <c r="H145" s="51"/>
+      <c r="I145" s="51"/>
+      <c r="J145" s="51"/>
+      <c r="K145" s="51"/>
+      <c r="L145" s="52"/>
     </row>
     <row r="146" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B146" s="10" t="s">
@@ -5949,18 +5947,18 @@
       <c r="B151" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="48" t="s">
+      <c r="C151" s="50" t="s">
         <v>326</v>
       </c>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="49"/>
-      <c r="G151" s="49"/>
-      <c r="H151" s="49"/>
-      <c r="I151" s="49"/>
-      <c r="J151" s="49"/>
-      <c r="K151" s="49"/>
-      <c r="L151" s="50"/>
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="51"/>
+      <c r="H151" s="51"/>
+      <c r="I151" s="51"/>
+      <c r="J151" s="51"/>
+      <c r="K151" s="51"/>
+      <c r="L151" s="52"/>
     </row>
     <row r="152" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B152" s="10" t="s">
@@ -6106,35 +6104,35 @@
       <c r="B158" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="D158" s="51"/>
-      <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="51"/>
-      <c r="I158" s="51"/>
-      <c r="J158" s="51"/>
-      <c r="K158" s="51"/>
-      <c r="L158" s="52"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="53"/>
+      <c r="I158" s="53"/>
+      <c r="J158" s="53"/>
+      <c r="K158" s="53"/>
+      <c r="L158" s="54"/>
     </row>
     <row r="159" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B159" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="53" t="s">
+      <c r="C159" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="D159" s="53"/>
-      <c r="E159" s="53"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="53"/>
-      <c r="H159" s="53"/>
-      <c r="I159" s="53"/>
-      <c r="J159" s="53"/>
-      <c r="K159" s="53"/>
-      <c r="L159" s="54"/>
+      <c r="D159" s="45"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="45"/>
+      <c r="G159" s="45"/>
+      <c r="H159" s="45"/>
+      <c r="I159" s="45"/>
+      <c r="J159" s="45"/>
+      <c r="K159" s="45"/>
+      <c r="L159" s="46"/>
     </row>
     <row r="160" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B160" s="10" t="s">
@@ -6239,35 +6237,35 @@
       <c r="B164" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="51" t="s">
+      <c r="C164" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="D164" s="51"/>
-      <c r="E164" s="51"/>
-      <c r="F164" s="51"/>
-      <c r="G164" s="51"/>
-      <c r="H164" s="51"/>
-      <c r="I164" s="51"/>
-      <c r="J164" s="51"/>
-      <c r="K164" s="51"/>
-      <c r="L164" s="52"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="53"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="53"/>
+      <c r="H164" s="53"/>
+      <c r="I164" s="53"/>
+      <c r="J164" s="53"/>
+      <c r="K164" s="53"/>
+      <c r="L164" s="54"/>
     </row>
     <row r="165" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B165" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C165" s="53" t="s">
+      <c r="C165" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="D165" s="53"/>
-      <c r="E165" s="53"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
-      <c r="H165" s="53"/>
-      <c r="I165" s="53"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="53"/>
-      <c r="L165" s="54"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
+      <c r="K165" s="45"/>
+      <c r="L165" s="46"/>
     </row>
     <row r="166" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B166" s="10" t="s">
@@ -6351,18 +6349,18 @@
       <c r="B170" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="48" t="s">
+      <c r="C170" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="49"/>
-      <c r="H170" s="49"/>
-      <c r="I170" s="49"/>
-      <c r="J170" s="49"/>
-      <c r="K170" s="49"/>
-      <c r="L170" s="50"/>
+      <c r="D170" s="51"/>
+      <c r="E170" s="51"/>
+      <c r="F170" s="51"/>
+      <c r="G170" s="51"/>
+      <c r="H170" s="51"/>
+      <c r="I170" s="51"/>
+      <c r="J170" s="51"/>
+      <c r="K170" s="51"/>
+      <c r="L170" s="52"/>
     </row>
     <row r="171" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B171" s="10" t="s">
@@ -6479,18 +6477,18 @@
       <c r="B176" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="48" t="s">
+      <c r="C176" s="50" t="s">
         <v>316</v>
       </c>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
-      <c r="F176" s="49"/>
-      <c r="G176" s="49"/>
-      <c r="H176" s="49"/>
-      <c r="I176" s="49"/>
-      <c r="J176" s="49"/>
-      <c r="K176" s="49"/>
-      <c r="L176" s="50"/>
+      <c r="D176" s="51"/>
+      <c r="E176" s="51"/>
+      <c r="F176" s="51"/>
+      <c r="G176" s="51"/>
+      <c r="H176" s="51"/>
+      <c r="I176" s="51"/>
+      <c r="J176" s="51"/>
+      <c r="K176" s="51"/>
+      <c r="L176" s="52"/>
     </row>
     <row r="177" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B177" s="10" t="s">
@@ -6564,35 +6562,35 @@
       <c r="B180" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C180" s="45" t="s">
+      <c r="C180" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="D180" s="46"/>
-      <c r="E180" s="46"/>
-      <c r="F180" s="46"/>
-      <c r="G180" s="46"/>
-      <c r="H180" s="46"/>
-      <c r="I180" s="46"/>
-      <c r="J180" s="46"/>
-      <c r="K180" s="46"/>
-      <c r="L180" s="47"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="48"/>
+      <c r="I180" s="48"/>
+      <c r="J180" s="48"/>
+      <c r="K180" s="48"/>
+      <c r="L180" s="49"/>
     </row>
     <row r="181" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B181" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C181" s="48" t="s">
+      <c r="C181" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="49"/>
-      <c r="G181" s="49"/>
-      <c r="H181" s="49"/>
-      <c r="I181" s="49"/>
-      <c r="J181" s="49"/>
-      <c r="K181" s="49"/>
-      <c r="L181" s="50"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="52"/>
     </row>
     <row r="182" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B182" s="10" t="s">
@@ -6747,35 +6745,35 @@
       <c r="B188" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C188" s="53" t="s">
+      <c r="C188" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="D188" s="53"/>
-      <c r="E188" s="53"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="53"/>
-      <c r="H188" s="53"/>
-      <c r="I188" s="53"/>
-      <c r="J188" s="53"/>
-      <c r="K188" s="53"/>
-      <c r="L188" s="53"/>
+      <c r="D188" s="45"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="45"/>
+      <c r="G188" s="45"/>
+      <c r="H188" s="45"/>
+      <c r="I188" s="45"/>
+      <c r="J188" s="45"/>
+      <c r="K188" s="45"/>
+      <c r="L188" s="45"/>
     </row>
     <row r="189" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B189" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C189" s="53" t="s">
+      <c r="C189" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="53"/>
-      <c r="H189" s="53"/>
-      <c r="I189" s="53"/>
-      <c r="J189" s="53"/>
-      <c r="K189" s="53"/>
-      <c r="L189" s="53"/>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
+      <c r="G189" s="45"/>
+      <c r="H189" s="45"/>
+      <c r="I189" s="45"/>
+      <c r="J189" s="45"/>
+      <c r="K189" s="45"/>
+      <c r="L189" s="45"/>
     </row>
     <row r="190" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B190" s="11" t="s">
@@ -6933,18 +6931,18 @@
       <c r="B197" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C197" s="48" t="s">
+      <c r="C197" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D197" s="49"/>
-      <c r="E197" s="49"/>
-      <c r="F197" s="49"/>
-      <c r="G197" s="49"/>
-      <c r="H197" s="49"/>
-      <c r="I197" s="49"/>
-      <c r="J197" s="49"/>
-      <c r="K197" s="49"/>
-      <c r="L197" s="50"/>
+      <c r="D197" s="51"/>
+      <c r="E197" s="51"/>
+      <c r="F197" s="51"/>
+      <c r="G197" s="51"/>
+      <c r="H197" s="51"/>
+      <c r="I197" s="51"/>
+      <c r="J197" s="51"/>
+      <c r="K197" s="51"/>
+      <c r="L197" s="52"/>
     </row>
     <row r="198" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B198" s="10" t="s">
@@ -7272,18 +7270,18 @@
       <c r="B211" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C211" s="48" t="s">
+      <c r="C211" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="D211" s="49"/>
-      <c r="E211" s="49"/>
-      <c r="F211" s="49"/>
-      <c r="G211" s="49"/>
-      <c r="H211" s="49"/>
-      <c r="I211" s="49"/>
-      <c r="J211" s="49"/>
-      <c r="K211" s="49"/>
-      <c r="L211" s="50"/>
+      <c r="D211" s="51"/>
+      <c r="E211" s="51"/>
+      <c r="F211" s="51"/>
+      <c r="G211" s="51"/>
+      <c r="H211" s="51"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="51"/>
+      <c r="K211" s="51"/>
+      <c r="L211" s="52"/>
     </row>
     <row r="212" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B212" s="10" t="s">
@@ -7484,18 +7482,18 @@
       <c r="B220" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C220" s="48" t="s">
+      <c r="C220" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D220" s="49"/>
-      <c r="E220" s="49"/>
-      <c r="F220" s="49"/>
-      <c r="G220" s="49"/>
-      <c r="H220" s="49"/>
-      <c r="I220" s="49"/>
-      <c r="J220" s="49"/>
-      <c r="K220" s="49"/>
-      <c r="L220" s="50"/>
+      <c r="D220" s="51"/>
+      <c r="E220" s="51"/>
+      <c r="F220" s="51"/>
+      <c r="G220" s="51"/>
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="51"/>
+      <c r="K220" s="51"/>
+      <c r="L220" s="52"/>
     </row>
     <row r="221" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B221" s="10" t="s">
@@ -7644,18 +7642,18 @@
       <c r="B227" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C227" s="48" t="s">
+      <c r="C227" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="49"/>
-      <c r="G227" s="49"/>
-      <c r="H227" s="49"/>
-      <c r="I227" s="49"/>
-      <c r="J227" s="49"/>
-      <c r="K227" s="49"/>
-      <c r="L227" s="50"/>
+      <c r="D227" s="51"/>
+      <c r="E227" s="51"/>
+      <c r="F227" s="51"/>
+      <c r="G227" s="51"/>
+      <c r="H227" s="51"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="51"/>
+      <c r="K227" s="51"/>
+      <c r="L227" s="52"/>
     </row>
     <row r="228" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B228" s="10" t="s">
@@ -7729,35 +7727,35 @@
       <c r="B231" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C231" s="51" t="s">
+      <c r="C231" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D231" s="51"/>
-      <c r="E231" s="51"/>
-      <c r="F231" s="51"/>
-      <c r="G231" s="51"/>
-      <c r="H231" s="51"/>
-      <c r="I231" s="51"/>
-      <c r="J231" s="51"/>
-      <c r="K231" s="51"/>
-      <c r="L231" s="52"/>
+      <c r="D231" s="53"/>
+      <c r="E231" s="53"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="53"/>
+      <c r="H231" s="53"/>
+      <c r="I231" s="53"/>
+      <c r="J231" s="53"/>
+      <c r="K231" s="53"/>
+      <c r="L231" s="54"/>
     </row>
     <row r="232" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B232" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C232" s="53" t="s">
+      <c r="C232" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="D232" s="53"/>
-      <c r="E232" s="53"/>
-      <c r="F232" s="53"/>
-      <c r="G232" s="53"/>
-      <c r="H232" s="53"/>
-      <c r="I232" s="53"/>
-      <c r="J232" s="53"/>
-      <c r="K232" s="53"/>
-      <c r="L232" s="54"/>
+      <c r="D232" s="45"/>
+      <c r="E232" s="45"/>
+      <c r="F232" s="45"/>
+      <c r="G232" s="45"/>
+      <c r="H232" s="45"/>
+      <c r="I232" s="45"/>
+      <c r="J232" s="45"/>
+      <c r="K232" s="45"/>
+      <c r="L232" s="46"/>
     </row>
     <row r="233" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B233" s="10" t="s">
@@ -8120,35 +8118,35 @@
       <c r="B247" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C247" s="51" t="s">
+      <c r="C247" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="D247" s="51"/>
-      <c r="E247" s="51"/>
-      <c r="F247" s="51"/>
-      <c r="G247" s="51"/>
-      <c r="H247" s="51"/>
-      <c r="I247" s="51"/>
-      <c r="J247" s="51"/>
-      <c r="K247" s="51"/>
-      <c r="L247" s="52"/>
+      <c r="D247" s="53"/>
+      <c r="E247" s="53"/>
+      <c r="F247" s="53"/>
+      <c r="G247" s="53"/>
+      <c r="H247" s="53"/>
+      <c r="I247" s="53"/>
+      <c r="J247" s="53"/>
+      <c r="K247" s="53"/>
+      <c r="L247" s="54"/>
     </row>
     <row r="248" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B248" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C248" s="53" t="s">
+      <c r="C248" s="45" t="s">
         <v>248</v>
       </c>
-      <c r="D248" s="53"/>
-      <c r="E248" s="53"/>
-      <c r="F248" s="53"/>
-      <c r="G248" s="53"/>
-      <c r="H248" s="53"/>
-      <c r="I248" s="53"/>
-      <c r="J248" s="53"/>
-      <c r="K248" s="53"/>
-      <c r="L248" s="54"/>
+      <c r="D248" s="45"/>
+      <c r="E248" s="45"/>
+      <c r="F248" s="45"/>
+      <c r="G248" s="45"/>
+      <c r="H248" s="45"/>
+      <c r="I248" s="45"/>
+      <c r="J248" s="45"/>
+      <c r="K248" s="45"/>
+      <c r="L248" s="46"/>
     </row>
     <row r="249" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B249" s="10" t="s">
@@ -8303,35 +8301,35 @@
       <c r="B255" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C255" s="51" t="s">
+      <c r="C255" s="53" t="s">
         <v>365</v>
       </c>
-      <c r="D255" s="51"/>
-      <c r="E255" s="51"/>
-      <c r="F255" s="51"/>
-      <c r="G255" s="51"/>
-      <c r="H255" s="51"/>
-      <c r="I255" s="51"/>
-      <c r="J255" s="51"/>
-      <c r="K255" s="51"/>
-      <c r="L255" s="52"/>
+      <c r="D255" s="53"/>
+      <c r="E255" s="53"/>
+      <c r="F255" s="53"/>
+      <c r="G255" s="53"/>
+      <c r="H255" s="53"/>
+      <c r="I255" s="53"/>
+      <c r="J255" s="53"/>
+      <c r="K255" s="53"/>
+      <c r="L255" s="54"/>
     </row>
     <row r="256" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B256" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C256" s="53" t="s">
+      <c r="C256" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="D256" s="53"/>
-      <c r="E256" s="53"/>
-      <c r="F256" s="53"/>
-      <c r="G256" s="53"/>
-      <c r="H256" s="53"/>
-      <c r="I256" s="53"/>
-      <c r="J256" s="53"/>
-      <c r="K256" s="53"/>
-      <c r="L256" s="54"/>
+      <c r="D256" s="45"/>
+      <c r="E256" s="45"/>
+      <c r="F256" s="45"/>
+      <c r="G256" s="45"/>
+      <c r="H256" s="45"/>
+      <c r="I256" s="45"/>
+      <c r="J256" s="45"/>
+      <c r="K256" s="45"/>
+      <c r="L256" s="46"/>
     </row>
     <row r="257" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B257" s="10" t="s">
@@ -8422,18 +8420,18 @@
       <c r="B261" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C261" s="48" t="s">
+      <c r="C261" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D261" s="49"/>
-      <c r="E261" s="49"/>
-      <c r="F261" s="49"/>
-      <c r="G261" s="49"/>
-      <c r="H261" s="49"/>
-      <c r="I261" s="49"/>
-      <c r="J261" s="49"/>
-      <c r="K261" s="49"/>
-      <c r="L261" s="50"/>
+      <c r="D261" s="51"/>
+      <c r="E261" s="51"/>
+      <c r="F261" s="51"/>
+      <c r="G261" s="51"/>
+      <c r="H261" s="51"/>
+      <c r="I261" s="51"/>
+      <c r="J261" s="51"/>
+      <c r="K261" s="51"/>
+      <c r="L261" s="52"/>
     </row>
     <row r="262" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B262" s="10" t="s">
@@ -8780,18 +8778,18 @@
       <c r="B276" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C276" s="48" t="s">
+      <c r="C276" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D276" s="49"/>
-      <c r="E276" s="49"/>
-      <c r="F276" s="49"/>
-      <c r="G276" s="49"/>
-      <c r="H276" s="49"/>
-      <c r="I276" s="49"/>
-      <c r="J276" s="49"/>
-      <c r="K276" s="49"/>
-      <c r="L276" s="50"/>
+      <c r="D276" s="51"/>
+      <c r="E276" s="51"/>
+      <c r="F276" s="51"/>
+      <c r="G276" s="51"/>
+      <c r="H276" s="51"/>
+      <c r="I276" s="51"/>
+      <c r="J276" s="51"/>
+      <c r="K276" s="51"/>
+      <c r="L276" s="52"/>
     </row>
     <row r="277" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B277" s="10" t="s">
@@ -8865,35 +8863,35 @@
       <c r="B280" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C280" s="51" t="s">
+      <c r="C280" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D280" s="51"/>
-      <c r="E280" s="51"/>
-      <c r="F280" s="51"/>
-      <c r="G280" s="51"/>
-      <c r="H280" s="51"/>
-      <c r="I280" s="51"/>
-      <c r="J280" s="51"/>
-      <c r="K280" s="51"/>
-      <c r="L280" s="52"/>
+      <c r="D280" s="53"/>
+      <c r="E280" s="53"/>
+      <c r="F280" s="53"/>
+      <c r="G280" s="53"/>
+      <c r="H280" s="53"/>
+      <c r="I280" s="53"/>
+      <c r="J280" s="53"/>
+      <c r="K280" s="53"/>
+      <c r="L280" s="54"/>
     </row>
     <row r="281" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B281" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C281" s="53" t="s">
+      <c r="C281" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D281" s="53"/>
-      <c r="E281" s="53"/>
-      <c r="F281" s="53"/>
-      <c r="G281" s="53"/>
-      <c r="H281" s="53"/>
-      <c r="I281" s="53"/>
-      <c r="J281" s="53"/>
-      <c r="K281" s="53"/>
-      <c r="L281" s="54"/>
+      <c r="D281" s="45"/>
+      <c r="E281" s="45"/>
+      <c r="F281" s="45"/>
+      <c r="G281" s="45"/>
+      <c r="H281" s="45"/>
+      <c r="I281" s="45"/>
+      <c r="J281" s="45"/>
+      <c r="K281" s="45"/>
+      <c r="L281" s="46"/>
     </row>
     <row r="282" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B282" s="10" t="s">
@@ -9181,18 +9179,18 @@
       <c r="B294" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C294" s="48" t="s">
+      <c r="C294" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D294" s="49"/>
-      <c r="E294" s="49"/>
-      <c r="F294" s="49"/>
-      <c r="G294" s="49"/>
-      <c r="H294" s="49"/>
-      <c r="I294" s="49"/>
-      <c r="J294" s="49"/>
-      <c r="K294" s="49"/>
-      <c r="L294" s="50"/>
+      <c r="D294" s="51"/>
+      <c r="E294" s="51"/>
+      <c r="F294" s="51"/>
+      <c r="G294" s="51"/>
+      <c r="H294" s="51"/>
+      <c r="I294" s="51"/>
+      <c r="J294" s="51"/>
+      <c r="K294" s="51"/>
+      <c r="L294" s="52"/>
     </row>
     <row r="295" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B295" s="10" t="s">
@@ -9292,35 +9290,35 @@
       <c r="B299" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C299" s="51" t="s">
+      <c r="C299" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="D299" s="51"/>
-      <c r="E299" s="51"/>
-      <c r="F299" s="51"/>
-      <c r="G299" s="51"/>
-      <c r="H299" s="51"/>
-      <c r="I299" s="51"/>
-      <c r="J299" s="51"/>
-      <c r="K299" s="51"/>
-      <c r="L299" s="52"/>
+      <c r="D299" s="53"/>
+      <c r="E299" s="53"/>
+      <c r="F299" s="53"/>
+      <c r="G299" s="53"/>
+      <c r="H299" s="53"/>
+      <c r="I299" s="53"/>
+      <c r="J299" s="53"/>
+      <c r="K299" s="53"/>
+      <c r="L299" s="54"/>
     </row>
     <row r="300" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B300" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C300" s="53" t="s">
+      <c r="C300" s="45" t="s">
         <v>314</v>
       </c>
-      <c r="D300" s="53"/>
-      <c r="E300" s="53"/>
-      <c r="F300" s="53"/>
-      <c r="G300" s="53"/>
-      <c r="H300" s="53"/>
-      <c r="I300" s="53"/>
-      <c r="J300" s="53"/>
-      <c r="K300" s="53"/>
-      <c r="L300" s="54"/>
+      <c r="D300" s="45"/>
+      <c r="E300" s="45"/>
+      <c r="F300" s="45"/>
+      <c r="G300" s="45"/>
+      <c r="H300" s="45"/>
+      <c r="I300" s="45"/>
+      <c r="J300" s="45"/>
+      <c r="K300" s="45"/>
+      <c r="L300" s="46"/>
     </row>
     <row r="301" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B301" s="10" t="s">
@@ -9437,18 +9435,18 @@
       <c r="B306" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C306" s="48" t="s">
+      <c r="C306" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D306" s="49"/>
-      <c r="E306" s="49"/>
-      <c r="F306" s="49"/>
-      <c r="G306" s="49"/>
-      <c r="H306" s="49"/>
-      <c r="I306" s="49"/>
-      <c r="J306" s="49"/>
-      <c r="K306" s="49"/>
-      <c r="L306" s="50"/>
+      <c r="D306" s="51"/>
+      <c r="E306" s="51"/>
+      <c r="F306" s="51"/>
+      <c r="G306" s="51"/>
+      <c r="H306" s="51"/>
+      <c r="I306" s="51"/>
+      <c r="J306" s="51"/>
+      <c r="K306" s="51"/>
+      <c r="L306" s="52"/>
     </row>
     <row r="307" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B307" s="10" t="s">
@@ -9578,6 +9576,68 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C130:L130"/>
+    <mergeCell ref="C131:L131"/>
+    <mergeCell ref="C164:L164"/>
+    <mergeCell ref="C150:L150"/>
+    <mergeCell ref="C151:L151"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:L50"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="C276:L276"/>
+    <mergeCell ref="C261:L261"/>
+    <mergeCell ref="C210:L210"/>
+    <mergeCell ref="C211:L211"/>
+    <mergeCell ref="C54:L54"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="C260:L260"/>
+    <mergeCell ref="C219:L219"/>
+    <mergeCell ref="C220:L220"/>
+    <mergeCell ref="C226:L226"/>
+    <mergeCell ref="C227:L227"/>
+    <mergeCell ref="C255:L255"/>
+    <mergeCell ref="C256:L256"/>
+    <mergeCell ref="C275:L275"/>
+    <mergeCell ref="C188:L188"/>
+    <mergeCell ref="C189:L189"/>
+    <mergeCell ref="C197:L197"/>
+    <mergeCell ref="C196:L196"/>
+    <mergeCell ref="C62:L62"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C68:L68"/>
+    <mergeCell ref="C69:L69"/>
+    <mergeCell ref="C165:L165"/>
+    <mergeCell ref="C175:L175"/>
+    <mergeCell ref="C176:L176"/>
+    <mergeCell ref="C90:L90"/>
+    <mergeCell ref="C91:L91"/>
+    <mergeCell ref="C98:L98"/>
+    <mergeCell ref="C99:L99"/>
+    <mergeCell ref="C114:L114"/>
+    <mergeCell ref="C305:L305"/>
+    <mergeCell ref="C306:L306"/>
+    <mergeCell ref="C73:L73"/>
+    <mergeCell ref="C103:L103"/>
+    <mergeCell ref="C104:L104"/>
+    <mergeCell ref="C299:L299"/>
+    <mergeCell ref="C300:L300"/>
+    <mergeCell ref="C135:L135"/>
+    <mergeCell ref="C136:L136"/>
+    <mergeCell ref="C293:L293"/>
+    <mergeCell ref="C294:L294"/>
+    <mergeCell ref="C144:L144"/>
+    <mergeCell ref="C145:L145"/>
+    <mergeCell ref="C74:L74"/>
+    <mergeCell ref="C280:L280"/>
+    <mergeCell ref="C281:L281"/>
     <mergeCell ref="C23:L23"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="C3:L3"/>
@@ -9594,68 +9654,6 @@
     <mergeCell ref="C120:L120"/>
     <mergeCell ref="C121:L121"/>
     <mergeCell ref="C113:L113"/>
-    <mergeCell ref="C305:L305"/>
-    <mergeCell ref="C306:L306"/>
-    <mergeCell ref="C73:L73"/>
-    <mergeCell ref="C103:L103"/>
-    <mergeCell ref="C104:L104"/>
-    <mergeCell ref="C299:L299"/>
-    <mergeCell ref="C300:L300"/>
-    <mergeCell ref="C135:L135"/>
-    <mergeCell ref="C136:L136"/>
-    <mergeCell ref="C293:L293"/>
-    <mergeCell ref="C294:L294"/>
-    <mergeCell ref="C144:L144"/>
-    <mergeCell ref="C145:L145"/>
-    <mergeCell ref="C74:L74"/>
-    <mergeCell ref="C280:L280"/>
-    <mergeCell ref="C281:L281"/>
-    <mergeCell ref="C197:L197"/>
-    <mergeCell ref="C196:L196"/>
-    <mergeCell ref="C62:L62"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="C68:L68"/>
-    <mergeCell ref="C69:L69"/>
-    <mergeCell ref="C165:L165"/>
-    <mergeCell ref="C175:L175"/>
-    <mergeCell ref="C176:L176"/>
-    <mergeCell ref="C90:L90"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="C98:L98"/>
-    <mergeCell ref="C99:L99"/>
-    <mergeCell ref="C114:L114"/>
-    <mergeCell ref="C276:L276"/>
-    <mergeCell ref="C261:L261"/>
-    <mergeCell ref="C210:L210"/>
-    <mergeCell ref="C211:L211"/>
-    <mergeCell ref="C54:L54"/>
-    <mergeCell ref="C55:L55"/>
-    <mergeCell ref="C260:L260"/>
-    <mergeCell ref="C219:L219"/>
-    <mergeCell ref="C220:L220"/>
-    <mergeCell ref="C226:L226"/>
-    <mergeCell ref="C227:L227"/>
-    <mergeCell ref="C255:L255"/>
-    <mergeCell ref="C256:L256"/>
-    <mergeCell ref="C275:L275"/>
-    <mergeCell ref="C188:L188"/>
-    <mergeCell ref="C189:L189"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C130:L130"/>
-    <mergeCell ref="C131:L131"/>
-    <mergeCell ref="C164:L164"/>
-    <mergeCell ref="C150:L150"/>
-    <mergeCell ref="C151:L151"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="C42:L42"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C50:L50"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C22:L22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
